--- a/data/trans_camb/P16A10-Clase-trans_camb.xlsx
+++ b/data/trans_camb/P16A10-Clase-trans_camb.xlsx
@@ -685,47 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-2,12; 3,84</t>
+          <t>-1,92; 4,12</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-1,88; 3,92</t>
+          <t>-1,93; 4,08</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-2,52; 2,49</t>
+          <t>-2,85; 2,5</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-6,32; -1,26</t>
+          <t>-6,61; -1,17</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-2,69; 4,38</t>
+          <t>-2,54; 4,29</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-4,83; 0,65</t>
+          <t>-4,5; 0,63</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-3,07; 1,12</t>
+          <t>-2,95; 1,26</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-1,36; 3,08</t>
+          <t>-1,17; 3,34</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-3,02; 0,83</t>
+          <t>-2,66; 0,8</t>
         </is>
       </c>
     </row>
@@ -791,47 +791,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-34,9; 109,56</t>
+          <t>-34,43; 116,86</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-34,96; 124,33</t>
+          <t>-33,41; 121,39</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-40,95; 75,17</t>
+          <t>-44,56; 80,68</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-100,0; -11,46</t>
+          <t>-100,0; -18,18</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-49,81; 170,93</t>
+          <t>-46,61; 186,72</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-72,02; 30,46</t>
+          <t>-70,57; 35,27</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-55,67; 33,61</t>
+          <t>-53,75; 39,41</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-26,6; 87,89</t>
+          <t>-21,4; 95,26</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>-50,0; 25,91</t>
+          <t>-46,93; 27,98</t>
         </is>
       </c>
     </row>
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-2,63; 3,06</t>
+          <t>-2,28; 3,23</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-1,64; 4,07</t>
+          <t>-1,51; 3,94</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-1,52; 3,63</t>
+          <t>-1,47; 3,68</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-3,06; 0,88</t>
+          <t>-3,06; 0,93</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-2,25; 2,18</t>
+          <t>-2,01; 2,35</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-2,31; 1,45</t>
+          <t>-2,14; 1,63</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-1,98; 1,67</t>
+          <t>-1,98; 1,52</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-1,16; 2,42</t>
+          <t>-1,07; 2,5</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-0,88; 2,43</t>
+          <t>-0,86; 2,31</t>
         </is>
       </c>
     </row>
@@ -1007,47 +1007,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-56,18; 146,76</t>
+          <t>-52,65; 156,14</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-35,53; 188,75</t>
+          <t>-33,84; 185,51</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-30,76; 180,45</t>
+          <t>-29,7; 173,69</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 219,42</t>
+          <t>-100,0; 244,19</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-83,39; 341,83</t>
+          <t>-79,87; 320,92</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-68,76; 211,46</t>
+          <t>-65,58; 269,52</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-56,94; 87,4</t>
+          <t>-58,56; 95,19</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-37,01; 143,08</t>
+          <t>-32,91; 132,97</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-25,53; 141,68</t>
+          <t>-23,66; 136,17</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-2,95; 2,62</t>
+          <t>-2,99; 2,45</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-2,21; 3,76</t>
+          <t>-2,23; 3,67</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-5,7; 2,1</t>
+          <t>-6,06; 2,19</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-3,51; 3,95</t>
+          <t>-3,8; 3,85</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-2,65; 6,97</t>
+          <t>-2,61; 6,94</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-1,01; 9,01</t>
+          <t>-1,0; 8,14</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-2,71; 2,01</t>
+          <t>-2,46; 2,03</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-1,44; 3,44</t>
+          <t>-1,33; 3,6</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-4,31; 2,42</t>
+          <t>-4,54; 2,43</t>
         </is>
       </c>
     </row>
@@ -1223,47 +1223,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-37,64; 57,02</t>
+          <t>-39,03; 50,1</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-29,2; 83,06</t>
+          <t>-28,79; 79,04</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-74,27; 38,79</t>
+          <t>-76,52; 38,04</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-64,29; 255,91</t>
+          <t>-68,02; 243,05</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-52,85; 477,15</t>
+          <t>-59,49; 401,44</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-27,11; 593,09</t>
+          <t>-27,62; 504,04</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-39,31; 46,78</t>
+          <t>-36,36; 51,83</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-23,59; 75,79</t>
+          <t>-19,28; 83,57</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-66,17; 47,6</t>
+          <t>-67,57; 46,79</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-3,38; 0,58</t>
+          <t>-3,35; 0,48</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-2,42; 1,75</t>
+          <t>-2,34; 1,74</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-2,09; 1,76</t>
+          <t>-2,24; 1,89</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-3,3; 0,68</t>
+          <t>-3,27; 0,62</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-2,41; 1,59</t>
+          <t>-2,39; 1,39</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-3,72; 0,68</t>
+          <t>-3,73; 0,54</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-2,86; -0,04</t>
+          <t>-2,97; 0,08</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-1,87; 1,06</t>
+          <t>-2,14; 0,9</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-2,7; 0,58</t>
+          <t>-2,91; 0,59</t>
         </is>
       </c>
     </row>
@@ -1439,47 +1439,47 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-42,28; 9,6</t>
+          <t>-40,23; 7,44</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-29,11; 28,31</t>
+          <t>-28,96; 28,65</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-25,35; 26,8</t>
+          <t>-27,25; 29,57</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-62,7; 23,84</t>
+          <t>-60,83; 21,92</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-45,22; 58,82</t>
+          <t>-48,69; 45,36</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-68,87; 15,91</t>
+          <t>-66,8; 16,16</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-42,35; -0,25</t>
+          <t>-42,37; 2,6</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-27,86; 20,46</t>
+          <t>-30,29; 18,2</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>-40,52; 9,95</t>
+          <t>-43,61; 10,82</t>
         </is>
       </c>
     </row>
@@ -1549,47 +1549,47 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-2,67; 3,34</t>
+          <t>-2,55; 3,65</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-1,49; 4,59</t>
+          <t>-1,57; 4,43</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-2,33; 3,67</t>
+          <t>-2,31; 3,5</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>-1,08; 4,75</t>
+          <t>-0,87; 4,8</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>-3,4; 1,96</t>
+          <t>-3,32; 2,51</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>-2,76; 2,76</t>
+          <t>-2,53; 2,81</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>-0,93; 3,42</t>
+          <t>-0,89; 3,35</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>-1,87; 2,4</t>
+          <t>-1,83; 2,27</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>-1,61; 2,25</t>
+          <t>-1,44; 2,46</t>
         </is>
       </c>
     </row>
@@ -1655,47 +1655,47 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>-35,78; 87,99</t>
+          <t>-39,01; 107,28</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>-21,08; 134,2</t>
+          <t>-22,97; 113,64</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>-33,45; 99,6</t>
+          <t>-34,21; 93,01</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>-13,98; 97,01</t>
+          <t>-12,76; 98,15</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>-42,78; 45,24</t>
+          <t>-42,87; 52,08</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>-32,78; 58,62</t>
+          <t>-31,35; 56,91</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>-13,13; 71,42</t>
+          <t>-12,11; 73,2</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>-25,73; 50,86</t>
+          <t>-25,17; 47,14</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>-22,03; 45,46</t>
+          <t>-20,72; 53,09</t>
         </is>
       </c>
     </row>
@@ -1765,47 +1765,47 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>0,11; 4,89</t>
+          <t>0,1; 4,72</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>-1,46; 0,0</t>
+          <t>-1,39; 0,0</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>-0,63; 0,88</t>
+          <t>-0,64; 0,95</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>-2,91; 1,22</t>
+          <t>-2,5; 1,26</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>-1,34; 3,33</t>
+          <t>-1,33; 3,16</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>-0,79; 3,57</t>
+          <t>-0,65; 3,63</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>-2,08; 1,43</t>
+          <t>-2,0; 1,46</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
         <is>
-          <t>-1,12; 2,48</t>
+          <t>-1,21; 2,72</t>
         </is>
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>-0,75; 2,62</t>
+          <t>-0,84; 2,63</t>
         </is>
       </c>
     </row>
@@ -1886,32 +1886,32 @@
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>-35,98; 20,03</t>
+          <t>-32,52; 21,87</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>-16,8; 55,09</t>
+          <t>-16,59; 51,51</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>-9,27; 58,09</t>
+          <t>-6,79; 59,45</t>
         </is>
       </c>
       <c r="I27" s="2" t="inlineStr">
         <is>
-          <t>-30,93; 30,44</t>
+          <t>-30,69; 29,2</t>
         </is>
       </c>
       <c r="J27" s="2" t="inlineStr">
         <is>
-          <t>-17,98; 52,57</t>
+          <t>-17,91; 54,26</t>
         </is>
       </c>
       <c r="K27" s="2" t="inlineStr">
         <is>
-          <t>-11,17; 53,1</t>
+          <t>-12,71; 53,71</t>
         </is>
       </c>
     </row>
@@ -1981,47 +1981,47 @@
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>-1,18; 1,06</t>
+          <t>-1,23; 0,9</t>
         </is>
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>-0,59; 1,64</t>
+          <t>-0,52; 1,74</t>
         </is>
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>-1,63; 0,93</t>
+          <t>-1,46; 0,99</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>-1,66; 0,44</t>
+          <t>-1,57; 0,58</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>-1,08; 1,3</t>
+          <t>-0,93; 1,25</t>
         </is>
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>-1,43; 0,8</t>
+          <t>-1,52; 0,73</t>
         </is>
       </c>
       <c r="I29" s="2" t="inlineStr">
         <is>
-          <t>-1,09; 0,43</t>
+          <t>-1,12; 0,4</t>
         </is>
       </c>
       <c r="J29" s="2" t="inlineStr">
         <is>
-          <t>-0,56; 1,09</t>
+          <t>-0,48; 1,14</t>
         </is>
       </c>
       <c r="K29" s="2" t="inlineStr">
         <is>
-          <t>-1,15; 0,55</t>
+          <t>-1,08; 0,54</t>
         </is>
       </c>
     </row>
@@ -2087,47 +2087,47 @@
       </c>
       <c r="C31" s="2" t="inlineStr">
         <is>
-          <t>-20,22; 20,96</t>
+          <t>-20,74; 18,06</t>
         </is>
       </c>
       <c r="D31" s="2" t="inlineStr">
         <is>
-          <t>-9,98; 33,87</t>
+          <t>-8,5; 35,28</t>
         </is>
       </c>
       <c r="E31" s="2" t="inlineStr">
         <is>
-          <t>-27,98; 18,49</t>
+          <t>-25,36; 19,99</t>
         </is>
       </c>
       <c r="F31" s="2" t="inlineStr">
         <is>
-          <t>-27,7; 9,39</t>
+          <t>-27,41; 12,08</t>
         </is>
       </c>
       <c r="G31" s="2" t="inlineStr">
         <is>
-          <t>-18,05; 26,95</t>
+          <t>-16,37; 25,79</t>
         </is>
       </c>
       <c r="H31" s="2" t="inlineStr">
         <is>
-          <t>-23,97; 16,43</t>
+          <t>-26,43; 15,46</t>
         </is>
       </c>
       <c r="I31" s="2" t="inlineStr">
         <is>
-          <t>-18,74; 8,95</t>
+          <t>-19,51; 8,14</t>
         </is>
       </c>
       <c r="J31" s="2" t="inlineStr">
         <is>
-          <t>-9,5; 22,05</t>
+          <t>-8,51; 22,79</t>
         </is>
       </c>
       <c r="K31" s="2" t="inlineStr">
         <is>
-          <t>-19,9; 10,84</t>
+          <t>-19,07; 10,86</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/P16A10-Clase-trans_camb.xlsx
+++ b/data/trans_camb/P16A10-Clase-trans_camb.xlsx
@@ -1702,7 +1702,7 @@
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>No ha trabajado</t>
+          <t>6.0</t>
         </is>
       </c>
       <c r="B24" s="3" t="inlineStr">
